--- a/data/trans_dic/P12A1_3_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P12A1_3_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna limitación  &gt;=60 años</t>
+          <t>Población con alguna limitación  &gt;=60 años (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>42,64%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>43,25%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>39,77%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>60,64%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>58,52%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>56,52%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,85%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>51,68%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>51,67%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>40,64%</t>
+          <t>10,19%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7,39%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>6,96%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>8,54%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>10,86%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,98; 56,76</t>
+          <t>4,3; 9,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,62; 55,73</t>
+          <t>4,2; 8,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,84; 50,35</t>
+          <t>4,05; 7,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,05; 44,73</t>
+          <t>3,54; 7,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>50,13; 70,32</t>
+          <t>6,28; 10,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,5; 69,66</t>
+          <t>9,32; 14,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,7; 66,18</t>
+          <t>6,66; 11,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,94; 52,96</t>
+          <t>6,66; 11,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>43,29; 59,88</t>
+          <t>6,02; 9,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>44,03; 60,46</t>
+          <t>6,06; 11,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>39,51; 55,9</t>
+          <t>6,95; 11,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>35,33; 46,69</t>
+          <t>8,28; 12,95</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>5,97; 9,46</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 9,33</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 8,28</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>5,41; 8,83</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>7,05; 10,28</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 12,67</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>41,22%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,03%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,2%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>53,33%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>50,03%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>62,66%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>45,32%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>45,85%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>44,49%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>51,41%</t>
+          <t>7,56%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,3%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6,31%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>7,3%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>9,88%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,08; 53,4</t>
+          <t>3,8; 7,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,38; 49,96</t>
+          <t>3,54; 7,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,72; 50,11</t>
+          <t>3,88; 8,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,69; 56,38</t>
+          <t>4,93; 10,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,96; 59,4</t>
+          <t>4,53; 11,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,7; 63,95</t>
+          <t>4,43; 11,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,29; 60,44</t>
+          <t>6,64; 13,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>45,39; 77,32</t>
+          <t>5,59; 10,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,68; 53,67</t>
+          <t>6,57; 13,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38,22; 53,99</t>
+          <t>8,09; 15,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>36,47; 51,84</t>
+          <t>7,43; 19,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,78; 63,35</t>
+          <t>4,78; 12,42</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,68; 9,55</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,89; 7,92</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>5,97; 9,62</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>7,22; 11,39</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>7,17; 13,62</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>5,3; 10,14</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>76,0%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>51,67%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>59,63%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>9,74%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>80,53%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>70,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>82,98%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>13,83%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9,27%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>78,57%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>59,9%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>68,69%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9,89%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>11,14%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>9,51%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>44,38; 100,0</t>
+          <t>3,85; 14,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,78; 71,19</t>
+          <t>6,27; 17,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>33,38; 78,58</t>
+          <t>9,89; 23,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>4,82; 17,29</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>60,68; 93,27</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,66; 84,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>67,56; 94,47</t>
+          <t>6,69; 18,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>7,19; 17,37</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8,68; 19,62</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,59; 17,23</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>60,64; 90,62</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>40,72; 73,3</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>49,14; 81,51</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>6,19; 14,06</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>7,99; 15,37</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>10,77; 19,66</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>5,61; 15,08</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,11%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,23%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,1%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>57,04%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>48,74%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>51,84%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>50,72%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>50,18%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>42,93%</t>
+          <t>9,62%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7,41%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>7,92%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>8,1%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>8,85%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,51; 54,49</t>
+          <t>4,8; 8,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,7; 50,28</t>
+          <t>4,92; 7,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,85; 50,83</t>
+          <t>5,47; 8,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,04; 44,88</t>
+          <t>5,17; 8,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,8; 64,11</t>
+          <t>6,46; 10,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,88; 65,01</t>
+          <t>8,6; 12,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,52; 62,91</t>
+          <t>7,4; 11,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,81; 55,72</t>
+          <t>7,13; 10,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,06; 57,72</t>
+          <t>7,49; 10,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,59; 56,25</t>
+          <t>7,67; 11,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>45,16; 55,18</t>
+          <t>7,74; 11,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>37,91; 47,95</t>
+          <t>7,79; 11,78</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>6,63; 8,98</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>6,38; 8,59</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>6,96; 9,09</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 9,6</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>7,65; 10,37</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>8,72; 11,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna limitación  &gt;=60 años (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>102234</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>98035</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>91779</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>87141</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19025</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>26295</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>154803</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>158713</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>141571</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>151373</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>20910</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>24012</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>257037</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>256748</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>233350</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>238514</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>39935</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>50306</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>71140; 153898</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>69098; 134949</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>66370; 120832</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>57920; 127957</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14409; 25031</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21220; 32532</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>120552; 202449</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>121885; 208122</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>109545; 179499</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>108668; 209575</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16531; 26846</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19503; 30501</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>206682; 327595</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>210879; 324134</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>190396; 286346</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>185540; 302810</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>32969; 48039</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>42434; 58719</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>75348</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>67875</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>78662</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>96546</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5417</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5186</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>126408</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>105920</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>122929</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>154899</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8175</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5023</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>201755</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>173795</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>201591</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>251445</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>13593</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>10210</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>52258; 104265</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>48821; 98636</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>53537; 111391</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>67606; 139284</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3266; 8446</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3223; 8122</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>92166; 180500</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>76797; 141574</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>90705; 179442</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>112851; 214537</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4873; 12674</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3177; 8251</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>156813; 263797</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>134641; 217998</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>164759; 265451</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>199660; 315100</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>9861; 18743</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>7375; 14114</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>32689</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>45209</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>66899</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>40599</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>49182</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>47059</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>56975</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>38190</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>81871</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>92268</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>123873</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>78789</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16112; 59832</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>26228; 72669</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>41832; 100531</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20077; 72074</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27375; 75744</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29461; 71126</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>35759; 80804</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18899; 70987</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>51218; 116393</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>66208; 127265</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>89912; 164145</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>46519; 124995</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>210271</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>211119</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>237340</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>224286</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24442</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>31481</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>330392</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>311691</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>321474</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>344462</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>29085</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>29035</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>540663</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>522811</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>558814</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>568747</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>53527</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>60516</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>165399; 276017</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>169410; 260943</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>188406; 286680</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>177250; 293048</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>19464; 30671</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>25844; 38484</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>266977; 401235</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>257488; 373713</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>270548; 396049</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>276155; 427079</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>23473; 36328</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>23511; 35574</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>467870; 633320</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>450079; 606268</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>491195; 641396</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>485893; 674130</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>46288; 62725</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>52507; 68833</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
